--- a/Files/Excel/Citroën.xlsx
+++ b/Files/Excel/Citroën.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477C4930-D3B4-4EBD-A690-A30632B2614A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C2DBF8-DD16-40C8-8654-7679E4A8D37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,135 +20,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Citroën 2CV</t>
-  </si>
-  <si>
-    <t>Citroën Aircross</t>
-  </si>
-  <si>
-    <t>Citroën Ami</t>
-  </si>
-  <si>
-    <t>Citroën AX</t>
-  </si>
-  <si>
-    <t>Citroën Axel</t>
-  </si>
-  <si>
-    <t>Citroën Berlingo</t>
-  </si>
-  <si>
-    <t>Citroën BX</t>
-  </si>
-  <si>
-    <t>Citroën C1</t>
-  </si>
-  <si>
-    <t>Citroën C3</t>
-  </si>
-  <si>
-    <t>Citroën C3 Aircross</t>
-  </si>
-  <si>
-    <t>Citroën C4</t>
-  </si>
-  <si>
-    <t>Citroën C4 Cactus</t>
-  </si>
-  <si>
-    <t>Citroën C4 Lounge</t>
-  </si>
-  <si>
-    <t>Citroën C4 SpaceTourer</t>
-  </si>
-  <si>
-    <t>Citroën C5</t>
-  </si>
-  <si>
-    <t>Citroën C6</t>
-  </si>
-  <si>
-    <t>Citroën C15</t>
-  </si>
-  <si>
-    <t>Citroën C25</t>
-  </si>
-  <si>
-    <t>Citroën Ami (veículo elétrico)</t>
-  </si>
-  <si>
-    <t>Citroën C-Zero</t>
-  </si>
-  <si>
-    <t>Citroën CX</t>
-  </si>
-  <si>
-    <t>Citroën Dyane</t>
-  </si>
-  <si>
-    <t>Citroën DS</t>
-  </si>
-  <si>
-    <t>Citroën DS5</t>
-  </si>
-  <si>
-    <t>Citroën GS</t>
-  </si>
-  <si>
-    <t>Citroën H Van</t>
-  </si>
-  <si>
-    <t>Citroën Jumper</t>
-  </si>
-  <si>
-    <t>Fiat Ducato</t>
-  </si>
-  <si>
-    <t>Citroën Jumpy</t>
-  </si>
-  <si>
-    <t>Citroën M35</t>
-  </si>
-  <si>
-    <t>Citroën Méhari</t>
-  </si>
-  <si>
-    <t>Citroën Saxo</t>
-  </si>
-  <si>
-    <t>Citroën SM</t>
-  </si>
-  <si>
-    <t>Citroën Traction Avant</t>
-  </si>
-  <si>
-    <t>Citroen Tipo C</t>
-  </si>
-  <si>
-    <t>Citroën Visa</t>
-  </si>
-  <si>
-    <t>Citroën Xantia</t>
-  </si>
-  <si>
-    <t>Citroën XM</t>
-  </si>
-  <si>
-    <t>Citroën Xsara</t>
-  </si>
-  <si>
-    <t>Citroën Xsara Picasso</t>
-  </si>
-  <si>
-    <t>Citroën ZX</t>
-  </si>
-  <si>
     <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Aircross</t>
+  </si>
+  <si>
+    <t>Ami</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>Berlingo</t>
+  </si>
+  <si>
+    <t>BX</t>
+  </si>
+  <si>
+    <t>Cactus</t>
+  </si>
+  <si>
+    <t>Lounge</t>
+  </si>
+  <si>
+    <t>SpaceTourer</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>Dyane</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>Jumper</t>
+  </si>
+  <si>
+    <t>Ducato</t>
+  </si>
+  <si>
+    <t>Jumpy</t>
+  </si>
+  <si>
+    <t>Méhari</t>
+  </si>
+  <si>
+    <t>Saxo</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Avant</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Xantia</t>
+  </si>
+  <si>
+    <t>XM</t>
+  </si>
+  <si>
+    <t>Xsara</t>
+  </si>
+  <si>
+    <t>Picasso</t>
+  </si>
+  <si>
+    <t>ZX</t>
+  </si>
+  <si>
+    <t>Ami (veículo elétrico)</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Citroën</t>
   </si>
 </sst>
 </file>
@@ -511,351 +490,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A2:A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
         <v>32</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
